--- a/政府采购.xlsx
+++ b/政府采购.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRC\Desktop\政府采购\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myspace\springbootDemo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0FDF6E-CAB3-4EB9-90AE-9CA74DFA41CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6CA774-C1BD-4E89-8891-F49AB17472A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="435" windowWidth="14175" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2325" windowWidth="23160" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>采购/资审公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,12 +178,208 @@
     <t>政府采购(山西)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>政府采购(内蒙古)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有政府采购数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(山东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据内容不好,有存在大量为错误页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(河南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(湖南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未采集完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集数据不对,content中内容不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫数据未采集完全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(贵州)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫分类有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有问题在修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江我看了看网站, 他都是接口, 如果爬的对的话, 可以处理,政府采购部分不是pdf , pdf是工程建设那一部分, 首先 我先得明确怎么分累的, 我挑选出政府采购的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东的好多文本保存的是这种错误信息  并且好像山东只有这一种业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+content 里面没内容
+它是接口 
+M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🇷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🇮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+你只保存了个框架页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(湖北)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有政府采购数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西 25的那个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +393,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -521,17 +723,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="47.125" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
@@ -752,6 +954,23 @@
       <c r="A38" t="s">
         <v>24</v>
       </c>
+      <c r="B38">
+        <v>63772</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>103596</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -790,13 +1009,27 @@
       <c r="A46" t="s">
         <v>34</v>
       </c>
+      <c r="B46">
+        <v>22527</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>161526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -804,12 +1037,151 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/政府采购.xlsx
+++ b/政府采购.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myspace\springbootDemo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6CA774-C1BD-4E89-8891-F49AB17472A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F3E0C7-DCFB-412E-867A-CA53C4AC348E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2325" windowWidth="23160" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="975" windowWidth="17730" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>采购/资审公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,19 +231,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘肃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宁夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +362,26 @@
     <t>陕西 25的那个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(西藏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(甘肃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在分类不明确问题,只能获取到项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(新疆)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +409,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +428,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -433,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -443,6 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -725,13 +740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="36.625" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
@@ -1005,6 +1020,14 @@
         <v>42781</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>3440</v>
+      </c>
+    </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
@@ -1029,7 +1052,7 @@
         <v>161526</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1037,151 +1060,168 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50">
+        <v>14793</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>32</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>42</v>
       </c>
       <c r="B56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
+      <c r="B68" s="5"/>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D74" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
       <c r="C75" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/政府采购.xlsx
+++ b/政府采购.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myspace\springbootDemo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F3E0C7-DCFB-412E-867A-CA53C4AC348E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B793E6-E396-4A3C-BB2D-84FBCE6B4144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="975" windowWidth="17730" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="735" windowWidth="16200" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>采购/资审公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content数据有问题, 内容缺失,只有外围框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>政府采购(温州)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,26 +179,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有政府采购数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府采购(山东)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据内容不好,有存在大量为错误页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>政府采购(河南)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>政府采购(湖南)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采集数据不对,content中内容不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爬虫数据未采集完全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>云南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,14 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湖南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辽宁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吉林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>福建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +244,6 @@
   </si>
   <si>
     <t>湖北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanxi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,26 +295,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重庆市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>政府采购(湖北)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有政府采购数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西 25的那个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑龙江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,6 +316,114 @@
   </si>
   <si>
     <t>政府采购(新疆)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省直辖市+全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxi 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxi 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(宁夏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(陕西)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(浙江)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市级数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(山东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集数据不对,content中内容不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据内容不好,有存在大量为错误页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省级数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(广西)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(黑龙江)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(广东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content数据有问题, 内容缺失,只有外围框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为已导出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(云南)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府采购(吉林)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +452,55 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +525,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,23 +557,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 2" xfId="1" builtinId="33"/>
+    <cellStyle name="着色 5" xfId="2" builtinId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,25 +875,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -770,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>329318</v>
       </c>
@@ -781,7 +918,7 @@
         <v>329318</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -795,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -812,11 +949,11 @@
         <v>33674</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2">
         <v>36548</v>
       </c>
@@ -824,11 +961,11 @@
         <v>22855</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8">
         <v>43121</v>
       </c>
@@ -839,11 +976,11 @@
         <v>7365</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9">
         <v>32799</v>
       </c>
@@ -851,8 +988,25 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B15">
@@ -862,371 +1016,442 @@
         <v>2196</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>295885</v>
+      </c>
+      <c r="E16">
+        <v>88063</v>
+      </c>
+      <c r="F16">
+        <v>175716</v>
+      </c>
+      <c r="G16">
+        <v>253</v>
+      </c>
+      <c r="H16">
+        <v>31853</v>
+      </c>
+      <c r="I16">
+        <f>SUM(E16:H16)</f>
+        <v>295885</v>
+      </c>
+    </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
+      <c r="A17" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>295885</v>
-      </c>
-      <c r="E17">
-        <v>88063</v>
-      </c>
-      <c r="F17">
-        <v>175716</v>
-      </c>
-      <c r="G17">
-        <v>253</v>
-      </c>
-      <c r="H17">
-        <v>31853</v>
-      </c>
-      <c r="I17">
-        <f>SUM(E17:H17)</f>
-        <v>295885</v>
+        <v>22708</v>
+      </c>
+      <c r="C17">
+        <v>22708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>3380</v>
+      </c>
+      <c r="E18">
+        <v>3380</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
+      <c r="A19" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>22708</v>
+        <v>44587</v>
       </c>
       <c r="C19">
-        <v>22708</v>
+        <v>44587</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>33991</v>
+      </c>
+      <c r="C20">
+        <v>33991</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>72081</v>
+      </c>
+      <c r="C21">
+        <v>72081</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>11</v>
+      <c r="A22" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>3380</v>
-      </c>
-      <c r="E22">
-        <v>3380</v>
+        <v>63772</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>103596</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>9292</v>
+      </c>
+      <c r="C24">
+        <v>9292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>42781</v>
+      </c>
+      <c r="C26">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>22527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="12">
+        <v>58475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>161526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>88841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>14793</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>115096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>55071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>97729</v>
+      </c>
+      <c r="C35">
+        <v>97729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>81242</v>
+      </c>
+      <c r="C36">
+        <v>81242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>24341</v>
+      </c>
+      <c r="C37">
+        <v>24341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>44587</v>
-      </c>
-      <c r="C27">
-        <v>44587</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31">
-        <v>33991</v>
-      </c>
-      <c r="C31">
-        <v>33991</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>72081</v>
-      </c>
-      <c r="C35">
-        <v>72081</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38">
-        <v>63772</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f>SUM(B15:B47)</f>
+        <v>1417466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>5019</v>
+      </c>
+      <c r="C53">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39">
-        <v>103596</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41">
-        <v>9292</v>
-      </c>
-      <c r="C41">
-        <v>9292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43">
-        <v>5019</v>
-      </c>
-      <c r="C43">
-        <v>5019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44">
-        <v>42781</v>
-      </c>
-      <c r="C44">
-        <v>42781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46">
-        <v>22527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48">
-        <v>161526</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50">
-        <v>14793</v>
-      </c>
-      <c r="D50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>52</v>
-      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
       <c r="C68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
         <v>14</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="A12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
